--- a/codense-product-sheet-1.xlsx
+++ b/codense-product-sheet-1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajatjain/Desktop/Excel Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A3BBE42-A255-4343-BFAF-ED80F092DCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFD9B7D-B3A9-D949-B7D7-FCDF0F0BAD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="680" windowWidth="28040" windowHeight="17420" xr2:uid="{9A811F4C-0884-D144-A5DF-F0715AF773AE}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17420" activeTab="1" xr2:uid="{9A811F4C-0884-D144-A5DF-F0715AF773AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -394,6 +395,17 @@
     <tableColumn id="4" xr3:uid="{3D17957A-5F4A-0346-9AC9-9D061C18936D}" name="TypeName" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{C6D406C4-BE3A-A34E-AD58-3256DBA67AB8}" name="RAM" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{8678F627-6976-E14F-A105-E983329DC7C8}" name="Price" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{689932F1-0350-D142-98DA-8767FC4EEE10}" name="Table4" displayName="Table4" ref="A3:B12" totalsRowShown="0">
+  <autoFilter ref="A3:B12" xr:uid="{689932F1-0350-D142-98DA-8767FC4EEE10}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{59E39D4A-7434-AE48-AEA8-F542526185B8}" name="Price"/>
+    <tableColumn id="2" xr3:uid="{5AF2B0C7-C931-9E4D-9820-64B535B0BAF2}" name="RAM"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -698,13 +710,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85A4758-69A5-6E41-9BE8-E6459164219D}">
   <dimension ref="A3:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1125,6 +1138,102 @@
       </c>
       <c r="F23" s="2">
         <v>147891</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2112F11-977F-E446-ABC9-1513E7159387}">
+  <dimension ref="A3:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>369</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>498.9</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>699</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>770</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>860</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1158.7</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1339.69</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1495</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
